--- a/biology/Botanique/Cérons_(AOC)/Cérons_(AOC).xlsx
+++ b/biology/Botanique/Cérons_(AOC)/Cérons_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9rons_(AOC)</t>
+          <t>Cérons_(AOC)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cérons[1] est un vin blanc français d'appellation d'origine contrôlée produit autour de Cérons dans le vignoble des Graves, une des subdivisions du vignoble de Bordeaux.
+Le cérons est un vin blanc français d'appellation d'origine contrôlée produit autour de Cérons dans le vignoble des Graves, une des subdivisions du vignoble de Bordeaux.
 Son aire de production est limitrophe de celle du sauternes.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9rons_(AOC)</t>
+          <t>Cérons_(AOC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appellation d'origine contrôlée cérons est créée par le décret du 11 septembre 1936. Dernière modification du cahier des charges par Arrêté du 8 février 2021 homologuant le cahier des charges de l'AOC "Cérons"
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9rons_(AOC)</t>
+          <t>Cérons_(AOC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'aire d'appellation cérons se situe sur des parcelles délimitées à l'intérieur des communes de Cérons, Illats et Podensac. Ces parcelles sont situées sur la rive gauche de la Garonne, dans le département de la Gironde, à une trentaine de kilomètres au sud-est de Bordeaux. L'aire d'appellation cérons forme une enclave dans celle des Graves.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9rons_(AOC)</t>
+          <t>Cérons_(AOC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les raisins doivent être arrivés à surmaturation et récoltés par tries successives. Le moût doit contenir au minimum 212 grammes de sucre par litre, et les vins doivent présenter au minimum 12,5 % d'alcool en volume[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les raisins doivent être arrivés à surmaturation et récoltés par tries successives. Le moût doit contenir au minimum 212 grammes de sucre par litre, et les vins doivent présenter au minimum 12,5 % d'alcool en volume.
 Les vins sont fins et élégants mais ils n'atteignent pas la concentration des sauternes : ils sont plus légers et plus nerveux. Ils peuvent se garder de 5 à 15 ans.
 </t>
         </is>
